--- a/data/financial_statements/soci/DD.xlsx
+++ b/data/financial_statements/soci/DD.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -137,9 +254,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -192,12 +306,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -502,129 +613,129 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
         <v>3317000000</v>
@@ -636,10 +747,10 @@
         <v>3274000000</v>
       </c>
       <c r="E2">
-        <v>4271000000</v>
+        <v>7333000000</v>
       </c>
       <c r="F2">
-        <v>4271000000</v>
+        <v>3199000000</v>
       </c>
       <c r="G2">
         <v>3104000000</v>
@@ -745,11 +856,11 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>-0.2234</v>
+        <v>0.0369</v>
       </c>
       <c r="C3">
         <v>0.0702</v>
@@ -758,10 +869,10 @@
         <v>0.0852</v>
       </c>
       <c r="E3">
-        <v>0.1389</v>
+        <v>0.9555</v>
       </c>
       <c r="F3">
-        <v>0.1769</v>
+        <v>-0.1185</v>
       </c>
       <c r="G3">
         <v>-0.0562</v>
@@ -867,23 +978,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>2241000000</v>
+        <v>2095000000</v>
       </c>
       <c r="C4">
-        <v>2297000000</v>
+        <v>2149000000</v>
       </c>
       <c r="D4">
-        <v>2263000000</v>
+        <v>2110000000</v>
       </c>
       <c r="E4">
-        <v>3033000000</v>
+        <v>4951000000</v>
       </c>
       <c r="F4">
-        <v>2974000000</v>
+        <v>2032000000</v>
       </c>
       <c r="G4">
         <v>1959000000</v>
@@ -989,23 +1100,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>1076000000</v>
+        <v>1222000000</v>
       </c>
       <c r="C5">
-        <v>1025000000</v>
+        <v>1173000000</v>
       </c>
       <c r="D5">
-        <v>1011000000</v>
+        <v>1164000000</v>
       </c>
       <c r="E5">
-        <v>1238000000</v>
+        <v>2382000000</v>
       </c>
       <c r="F5">
-        <v>1297000000</v>
+        <v>1167000000</v>
       </c>
       <c r="G5">
         <v>1145000000</v>
@@ -1111,8 +1222,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>129000000</v>
@@ -1124,10 +1235,10 @@
         <v>143000000</v>
       </c>
       <c r="E6">
-        <v>162000000</v>
+        <v>209000000</v>
       </c>
       <c r="F6">
-        <v>152000000</v>
+        <v>137000000</v>
       </c>
       <c r="G6">
         <v>133000000</v>
@@ -1233,8 +1344,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>356000000</v>
@@ -1249,7 +1360,7 @@
         <v>654000000</v>
       </c>
       <c r="F7">
-        <v>475000000</v>
+        <v>411000000</v>
       </c>
       <c r="G7">
         <v>395000000</v>
@@ -1355,8 +1466,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>610000000</v>
@@ -1477,8 +1588,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>128000000</v>
@@ -1518,17 +1629,17 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>5000000</v>
+        <v>128000000</v>
       </c>
       <c r="C10">
-        <v>2000000</v>
+        <v>122000000</v>
       </c>
       <c r="D10">
-        <v>1000000</v>
+        <v>120000000</v>
       </c>
       <c r="E10">
         <v>135000000</v>
@@ -1634,23 +1745,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>-20000000</v>
+        <v>-112000000</v>
       </c>
       <c r="C11">
-        <v>145000000</v>
+        <v>-102000000</v>
       </c>
       <c r="D11">
-        <v>111000000</v>
+        <v>-94000000</v>
       </c>
       <c r="E11">
-        <v>134000000</v>
+        <v>-106000000</v>
       </c>
       <c r="F11">
-        <v>38000000</v>
+        <v>-93000000</v>
       </c>
       <c r="G11">
         <v>-109000000</v>
@@ -1756,8 +1867,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>498000000</v>
@@ -1769,10 +1880,10 @@
         <v>279000000</v>
       </c>
       <c r="E12">
-        <v>350000000</v>
+        <v>984000000</v>
       </c>
       <c r="F12">
-        <v>558000000</v>
+        <v>339000000</v>
       </c>
       <c r="G12">
         <v>488000000</v>
@@ -1878,8 +1989,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>139000000</v>
@@ -1891,10 +2002,10 @@
         <v>47000000</v>
       </c>
       <c r="E13">
-        <v>84000000</v>
+        <v>220000000</v>
       </c>
       <c r="F13">
-        <v>125000000</v>
+        <v>80000000</v>
       </c>
       <c r="G13">
         <v>93000000</v>
@@ -2000,8 +2111,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>359000000</v>
@@ -2122,8 +2233,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="Y15">
         <v>85000000</v>
@@ -2175,8 +2286,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>9000000</v>
@@ -2297,8 +2408,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>367000000</v>
@@ -2419,20 +2530,20 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>0.73</v>
       </c>
       <c r="C18">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="D18">
         <v>0.95</v>
       </c>
       <c r="E18">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="F18">
         <v>0.75</v>
@@ -2541,8 +2652,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>0.73</v>
@@ -2663,23 +2774,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>499000000</v>
+        <v>499400000</v>
       </c>
       <c r="C20">
-        <v>505000000</v>
+        <v>505400000</v>
       </c>
       <c r="D20">
         <v>512000000</v>
       </c>
       <c r="E20">
-        <v>516000000</v>
+        <v>542700000</v>
       </c>
       <c r="F20">
-        <v>522000000</v>
+        <v>521500000</v>
       </c>
       <c r="G20">
         <v>529600000</v>
@@ -2785,23 +2896,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>500000000</v>
+        <v>500400000</v>
       </c>
       <c r="C21">
-        <v>506000000</v>
+        <v>506300000</v>
       </c>
       <c r="D21">
-        <v>514000000</v>
+        <v>513800000</v>
       </c>
       <c r="E21">
-        <v>518000000</v>
+        <v>544200000</v>
       </c>
       <c r="F21">
-        <v>523000000</v>
+        <v>523100000</v>
       </c>
       <c r="G21">
         <v>531200000</v>
@@ -2907,23 +3018,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>0.3244</v>
+        <v>0.3684</v>
       </c>
       <c r="C22">
-        <v>0.3085</v>
+        <v>0.3531</v>
       </c>
       <c r="D22">
-        <v>0.3088</v>
+        <v>0.3555</v>
       </c>
       <c r="E22">
-        <v>0.2899</v>
+        <v>0.3248</v>
       </c>
       <c r="F22">
-        <v>0.3037</v>
+        <v>0.3648</v>
       </c>
       <c r="G22">
         <v>0.3689</v>
@@ -3029,8 +3140,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>0.1839</v>
@@ -3042,10 +3153,10 @@
         <v>0.1139</v>
       </c>
       <c r="E23">
-        <v>0.2552</v>
+        <v>0.1486</v>
       </c>
       <c r="F23">
-        <v>0.1011</v>
+        <v>0.135</v>
       </c>
       <c r="G23">
         <v>0.1923</v>
@@ -3151,8 +3262,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>0.1501</v>
@@ -3164,10 +3275,10 @@
         <v>0.0852</v>
       </c>
       <c r="E24">
-        <v>0.0819</v>
+        <v>0.1342</v>
       </c>
       <c r="F24">
-        <v>0.1306</v>
+        <v>0.106</v>
       </c>
       <c r="G24">
         <v>0.1572</v>
@@ -3273,8 +3384,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>0.1106</v>
@@ -3286,10 +3397,10 @@
         <v>0.1491</v>
       </c>
       <c r="E25">
-        <v>0.0478</v>
+        <v>0.0278</v>
       </c>
       <c r="F25">
-        <v>0.0915</v>
+        <v>0.1222</v>
       </c>
       <c r="G25">
         <v>0.154</v>
@@ -3395,23 +3506,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>874000000</v>
+        <v>893000000</v>
       </c>
       <c r="C26">
-        <v>780000000</v>
+        <v>861000000</v>
       </c>
       <c r="D26">
-        <v>776000000</v>
+        <v>715000000</v>
       </c>
       <c r="E26">
-        <v>975000000</v>
+        <v>1442000000</v>
       </c>
       <c r="F26">
-        <v>1040000000</v>
+        <v>814000000</v>
       </c>
       <c r="G26">
         <v>930000000</v>
@@ -3517,8 +3628,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>610000000</v>
@@ -3639,8 +3750,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>359000000</v>
@@ -3761,8 +3872,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>17000000</v>
@@ -3829,23 +3940,23 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>359000000</v>
+        <v>376000000</v>
       </c>
       <c r="C30">
-        <v>365000000</v>
+        <v>795000000</v>
       </c>
       <c r="D30">
-        <v>232000000</v>
+        <v>508000000</v>
       </c>
       <c r="E30">
-        <v>266000000</v>
+        <v>226000000</v>
       </c>
       <c r="F30">
-        <v>433000000</v>
+        <v>404000000</v>
       </c>
       <c r="G30">
         <v>487000000</v>
@@ -3951,8 +4062,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>0.6899999999999999</v>
@@ -4073,8 +4184,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>0.6899999999999999</v>
@@ -4195,8 +4306,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>0.05</v>
@@ -4263,8 +4374,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>0.05</v>
@@ -4331,8 +4442,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>0.7529</v>
@@ -4453,8 +4564,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>0.7514</v>
@@ -4575,8 +4686,8 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
         <v>500400000</v>
@@ -4697,23 +4808,23 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B38">
-        <v>0.2635</v>
+        <v>0.2692</v>
       </c>
       <c r="C38">
-        <v>0.2348</v>
+        <v>0.2592</v>
       </c>
       <c r="D38">
-        <v>0.237</v>
+        <v>0.2184</v>
       </c>
       <c r="E38">
-        <v>0.2283</v>
+        <v>0.1966</v>
       </c>
       <c r="F38">
-        <v>0.2435</v>
+        <v>0.2545</v>
       </c>
       <c r="G38">
         <v>0.2996</v>
@@ -4819,8 +4930,8 @@
       </c>
     </row>
     <row r="39" spans="1:40">
-      <c r="A39" t="s">
-        <v>38</v>
+      <c r="A39" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B39">
         <v>0.1263</v>
@@ -4832,10 +4943,10 @@
         <v>0.0638</v>
       </c>
       <c r="E39">
-        <v>0.1454</v>
+        <v>0.0847</v>
       </c>
       <c r="F39">
-        <v>0.1971</v>
+        <v>0.2632</v>
       </c>
       <c r="G39">
         <v>0.1418</v>
